--- a/ONCHO/OEM/oncho_4_rdtov16.xlsx
+++ b/ONCHO/OEM/oncho_4_rdtov16.xlsx
@@ -169,9 +169,6 @@
     <t>yesNoDontKnow</t>
   </si>
   <si>
-    <t>p_RecorderID</t>
-  </si>
-  <si>
     <t>Select District</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>${d_IDType} = 'ID_generation'</t>
+  </si>
+  <si>
+    <t>d_RecorderID</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>11</v>
@@ -1019,7 +1019,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>17</v>
@@ -1056,10 +1056,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="9" t="s">
@@ -1083,14 +1083,14 @@
         <v>28</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="12"/>
@@ -1107,17 +1107,17 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="12"/>
@@ -1137,14 +1137,14 @@
         <v>28</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10"/>
@@ -1161,17 +1161,17 @@
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
@@ -1188,17 +1188,17 @@
     </row>
     <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="7"/>
@@ -1206,7 +1206,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>39</v>
@@ -1219,28 +1219,28 @@
         <v>28</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="12"/>
       <c r="H9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>39</v>
@@ -1253,28 +1253,28 @@
         <v>28</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>136</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>39</v>
@@ -1284,17 +1284,17 @@
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="6"/>
@@ -1310,17 +1310,17 @@
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="6"/>
@@ -1328,7 +1328,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="17"/>
       <c r="K12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M12" s="7" t="s">
         <v>39</v>
@@ -1341,14 +1341,14 @@
         <v>28</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="6"/>
@@ -1356,7 +1356,7 @@
       <c r="I13" s="16"/>
       <c r="J13" s="17"/>
       <c r="K13" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>39</v>
@@ -1369,14 +1369,14 @@
         <v>33</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" s="20"/>
       <c r="G14" s="6"/>
@@ -1394,7 +1394,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
@@ -1415,7 +1415,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>29</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>30</v>
@@ -1582,184 +1582,184 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="25" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="25" t="s">
         <v>112</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="25" t="s">
         <v>118</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>127</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1801,10 +1801,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
       </c>
       <c r="C2">
         <v>20200406</v>
